--- a/result/comparision_utility.xlsx
+++ b/result/comparision_utility.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PMLP\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C95A9-0860-4138-A2DD-B73E1F006D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35046E9-9B49-4E96-9E83-450DE6030793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{65E77100-9FE9-476E-8BCE-B0531BB2A705}"/>
+    <workbookView xWindow="-38520" yWindow="4665" windowWidth="38640" windowHeight="21120" xr2:uid="{65E77100-9FE9-476E-8BCE-B0531BB2A705}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>mutual</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,81 +65,6 @@
   <si>
     <t>region k</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4697264905467523</t>
-  </si>
-  <si>
-    <t>0.40879589621474943</t>
-  </si>
-  <si>
-    <t>0.3623063839469546</t>
-  </si>
-  <si>
-    <t>0.32850013807762146</t>
-  </si>
-  <si>
-    <t>0.30043458478034174</t>
-  </si>
-  <si>
-    <t>0.2607087795169652</t>
-  </si>
-  <si>
-    <t>0.2447721466088913</t>
-  </si>
-  <si>
-    <t>0.23116222541868767</t>
-  </si>
-  <si>
-    <t>0.21875731667390913</t>
-  </si>
-  <si>
-    <t>0.20828776273381552</t>
-  </si>
-  <si>
-    <t>0.19867274766593368</t>
-  </si>
-  <si>
-    <t>0.1903706615414239</t>
-  </si>
-  <si>
-    <t>0.18308292556783998</t>
-  </si>
-  <si>
-    <t>0.17664888718558622</t>
-  </si>
-  <si>
-    <t>0.1710428580472604</t>
-  </si>
-  <si>
-    <t>0.16226127466786472</t>
-  </si>
-  <si>
-    <t>0.14516360501836106</t>
-  </si>
-  <si>
-    <t>0.1323948072501284</t>
-  </si>
-  <si>
-    <t>0.11838096255179406</t>
-  </si>
-  <si>
-    <t>0.11061196715626188</t>
-  </si>
-  <si>
-    <t>0.10808560140251622</t>
-  </si>
-  <si>
-    <t>0.10974354631979817</t>
-  </si>
-  <si>
-    <t>0.11249441422834683</t>
-  </si>
-  <si>
-    <t>0.1178890273038345</t>
-  </si>
-  <si>
-    <t>0.12076488860858571</t>
   </si>
 </sst>
 </file>
@@ -184,15 +110,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,82 +521,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.46972649054675197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.40879589621474899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.36230638394695402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.32850013807762102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.30043458478034102</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.27939841281826799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.26070877951696497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.24477214660889099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.231162225418687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.21875731667390899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.208287762733815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.19867274766593301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.19037066154142299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.18308292556783901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.176648887185586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.17104285804725999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.162261274667864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.14516360501836101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.132394807250128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.11838096255179401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.110611967156261</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.108085601402516</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.109743546319798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.112494414228346</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.11788902730383399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.120764888608585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732B7291-B8BB-4730-A12F-2B6983D75A10}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3518,18 +3438,18 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
@@ -3567,8 +3487,8 @@
       <c r="F3">
         <v>-1.01982997777787E-2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
+      <c r="G3">
+        <v>0.46972649054675197</v>
       </c>
       <c r="H3">
         <v>7.0976882662274702E-3</v>
@@ -3590,8 +3510,8 @@
       <c r="F4">
         <v>2.8463177156404199E-3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="G4">
+        <v>0.40879589621474899</v>
       </c>
       <c r="H4">
         <v>-4.8952873790284899E-3</v>
@@ -3613,8 +3533,8 @@
       <c r="F5">
         <v>-7.4779570869943897E-4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
+      <c r="G5">
+        <v>0.36230638394695402</v>
       </c>
       <c r="H5">
         <v>1.42762147652455E-2</v>
@@ -3636,8 +3556,8 @@
       <c r="F6">
         <v>-5.1714659304072396E-4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
+      <c r="G6">
+        <v>0.32850013807762102</v>
       </c>
       <c r="H6">
         <v>-1.12570976678313E-2</v>
@@ -3659,8 +3579,8 @@
       <c r="F7">
         <v>3.0682360345861198E-3</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
+      <c r="G7">
+        <v>0.30043458478034102</v>
       </c>
       <c r="H7">
         <v>1.0047322769575E-2</v>
@@ -3682,7 +3602,7 @@
       <c r="F8">
         <v>3.31495572791038E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>0.27939841281826799</v>
       </c>
       <c r="H8">
@@ -3705,8 +3625,8 @@
       <c r="F9">
         <v>-1.6295976248026301E-2</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
+      <c r="G9">
+        <v>0.26070877951696497</v>
       </c>
       <c r="H9">
         <v>1.30758384476368E-2</v>
@@ -3728,8 +3648,8 @@
       <c r="F10">
         <v>-3.5506797284311801E-3</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
+      <c r="G10">
+        <v>0.24477214660889099</v>
       </c>
       <c r="H10">
         <v>9.4227577656704493E-3</v>
@@ -3751,8 +3671,8 @@
       <c r="F11">
         <v>1.05585481454541E-3</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
+      <c r="G11">
+        <v>0.231162225418687</v>
       </c>
       <c r="H11">
         <v>6.8077736833319297E-3</v>
@@ -3774,8 +3694,8 @@
       <c r="F12">
         <v>-1.0360892744116499E-2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
+      <c r="G12">
+        <v>0.21875731667390899</v>
       </c>
       <c r="H12">
         <v>-5.8999476597565903E-4</v>
@@ -3797,8 +3717,8 @@
       <c r="F13">
         <v>8.5921178476773205E-3</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
+      <c r="G13">
+        <v>0.208287762733815</v>
       </c>
       <c r="H13">
         <v>1.4739685606300301E-2</v>
@@ -3820,8 +3740,8 @@
       <c r="F14">
         <v>5.0277788852051497E-3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
+      <c r="G14">
+        <v>0.19867274766593301</v>
       </c>
       <c r="H14">
         <v>2.7584215684328402E-2</v>
@@ -3843,8 +3763,8 @@
       <c r="F15">
         <v>-9.4452001650394395E-3</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
+      <c r="G15">
+        <v>0.19037066154142299</v>
       </c>
       <c r="H15">
         <v>1.2622409803421299E-2</v>
@@ -3866,8 +3786,8 @@
       <c r="F16">
         <v>-5.7699280806635797E-3</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
+      <c r="G16">
+        <v>0.18308292556783901</v>
       </c>
       <c r="H16">
         <v>5.5573152847333499E-3</v>
@@ -3889,8 +3809,8 @@
       <c r="F17">
         <v>2.3954800065173799E-2</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
+      <c r="G17">
+        <v>0.176648887185586</v>
       </c>
       <c r="H17">
         <v>3.1160310368670398E-3</v>
@@ -3912,8 +3832,8 @@
       <c r="F18">
         <v>-3.2217690786582199E-3</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
+      <c r="G18">
+        <v>0.17104285804725999</v>
       </c>
       <c r="H18">
         <v>-1.7699415525384301E-3</v>
@@ -3935,8 +3855,8 @@
       <c r="F19">
         <v>1.4217313974651299E-2</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
+      <c r="G19">
+        <v>0.162261274667864</v>
       </c>
       <c r="H19">
         <v>1.6202456972739102E-2</v>
@@ -3958,8 +3878,8 @@
       <c r="F20">
         <v>-2.6541279500812299E-2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
+      <c r="G20">
+        <v>0.14516360501836101</v>
       </c>
       <c r="H20">
         <v>-6.85586983967835E-3</v>
@@ -3981,8 +3901,8 @@
       <c r="F21">
         <v>3.7126817913971598E-3</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
+      <c r="G21">
+        <v>0.132394807250128</v>
       </c>
       <c r="H21">
         <v>6.2870319201852097E-4</v>
@@ -4004,8 +3924,8 @@
       <c r="F22">
         <v>3.7993141692358899E-3</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>25</v>
+      <c r="G22">
+        <v>0.11838096255179401</v>
       </c>
       <c r="H22">
         <v>9.1165118342195796E-3</v>
@@ -4027,8 +3947,8 @@
       <c r="F23">
         <v>4.0358055158843404E-3</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>26</v>
+      <c r="G23">
+        <v>0.110611967156261</v>
       </c>
       <c r="H23">
         <v>-9.4749057348409598E-4</v>
@@ -4050,8 +3970,8 @@
       <c r="F24">
         <v>4.1469745757864197E-3</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>27</v>
+      <c r="G24">
+        <v>0.108085601402516</v>
       </c>
       <c r="H24">
         <v>-5.3541148416424997E-3</v>
@@ -4073,8 +3993,8 @@
       <c r="F25">
         <v>8.1771485159734293E-3</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>28</v>
+      <c r="G25">
+        <v>0.109743546319798</v>
       </c>
       <c r="H25">
         <v>4.1585263585762096E-3</v>
@@ -4096,8 +4016,8 @@
       <c r="F26">
         <v>-4.8784137873472497E-3</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>29</v>
+      <c r="G26">
+        <v>0.112494414228346</v>
       </c>
       <c r="H26">
         <v>-1.18098800384584E-2</v>
@@ -4119,8 +4039,8 @@
       <c r="F27">
         <v>-3.1117504424541002E-3</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>30</v>
+      <c r="G27">
+        <v>0.11788902730383399</v>
       </c>
       <c r="H27">
         <v>-5.6922377125021998E-3</v>
@@ -4142,8 +4062,8 @@
       <c r="F28">
         <v>-9.7367054774591E-3</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>31</v>
+      <c r="G28">
+        <v>0.120764888608585</v>
       </c>
       <c r="H28">
         <v>7.5868284177562501E-3</v>
